--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698284.1374652556</v>
+        <v>695552.6411447607</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11850127.24350327</v>
+        <v>11850127.24350326</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10.84944384251134</v>
       </c>
       <c r="F2" t="n">
-        <v>184.5808806410311</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>95.87153856393435</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.220846587376222</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.0731271501067</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>350.9323859489969</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>247.4073273774623</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.546296656423282</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>35.10850750580142</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>261.6392224513269</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1184,19 +1184,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>20.65986921840864</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>177.548972363976</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>61.25244010298776</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833921</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2715658672508</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>88.57454693356294</v>
+        <v>81.37259901119255</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>123.981557645677</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229322</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>93.62264337260697</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833929</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272871</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.632620083626892</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>80.33989744908958</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>609.3508327416157</v>
+        <v>1217.039540402898</v>
       </c>
       <c r="C2" t="n">
-        <v>240.388315801204</v>
+        <v>848.0770234624865</v>
       </c>
       <c r="D2" t="n">
-        <v>240.388315801204</v>
+        <v>489.811324855736</v>
       </c>
       <c r="E2" t="n">
-        <v>240.388315801204</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2600.309153074854</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2600.309153074854</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2346.547367712946</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2346.547367712946</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.778712442832</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>1993.778712442832</v>
       </c>
       <c r="Y2" t="n">
-        <v>995.9506728057374</v>
+        <v>1603.63938046702</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1581.134716985073</v>
+        <v>1472.812633166742</v>
       </c>
       <c r="C5" t="n">
-        <v>1212.172200044661</v>
+        <v>1472.812633166742</v>
       </c>
       <c r="D5" t="n">
-        <v>1212.172200044661</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E5" t="n">
-        <v>826.3839474464169</v>
+        <v>728.758681961747</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>721.8131812125436</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>303.8493731107304</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1581.134716985073</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>544.5191867458693</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>544.5191867458693</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>544.5191867458693</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>544.5191867458693</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>544.5191867458693</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X7" t="n">
-        <v>544.5191867458693</v>
+        <v>62.5756047056405</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.5191867458693</v>
+        <v>62.5756047056405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.271475670705</v>
+        <v>1756.46040851209</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.271475670705</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="D8" t="n">
-        <v>855.0057770639544</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="E8" t="n">
-        <v>855.0057770639544</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="F8" t="n">
         <v>590.7237341838262</v>
@@ -4799,55 +4799,55 @@
         <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1417.096460678711</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2044.404128738558</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2662.164970996628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2520.065498748982</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2520.065498748982</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>2520.065498748982</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646517</v>
+        <v>2520.065498748982</v>
       </c>
       <c r="X8" t="n">
-        <v>1603.410807646517</v>
+        <v>2146.599740487902</v>
       </c>
       <c r="Y8" t="n">
-        <v>1213.271475670705</v>
+        <v>1756.46040851209</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1646.937527316293</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1845.594268968958</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2005.106581637719</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4993,19 +4993,19 @@
         <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>426.8072408291969</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>426.8072408291969</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>364.9360892100174</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.9360892100174</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409636</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200284</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4394675364348</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608047</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779263</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412851</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>2005.899154770046</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.918335063571</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>561.918335063571</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>411.8016956512353</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>322.332456324404</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="F13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.450588178206</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.766099972319</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.348929935358</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3593790373409</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5667998938108</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>388.6197041282763</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282763</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458832</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,10 +6306,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
         <v>716.6687843969308</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>551.263652184387</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>551.263652184387</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>404.3737046864766</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>237.1776054013565</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>95.46577424355459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8760050556308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>483.8760050556308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>316.6799057705107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>174.9680746127088</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,7 +7400,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,10 +8465,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>18.46138444627903</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>294.7256303393017</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>222.2951651006803</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>78.54417424503715</v>
       </c>
       <c r="T2" t="n">
-        <v>92.52361199590523</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>202.9246923626427</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29152613729352</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.85941571300623</v>
+        <v>65.06136363537662</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -23434,7 +23434,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26526345295086</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6085800303783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822988</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>79.63321623493864</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9259388694759565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1009552.329408226</v>
+        <v>1009552.329408225</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1013812.801332607</v>
+        <v>1013812.801332606</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1013812.801332607</v>
+        <v>1013812.801332606</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503243</v>
+        <v>375475.6212503241</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="H2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="H2" t="n">
-        <v>403573.2998450032</v>
       </c>
       <c r="I2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="K2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="L2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="K2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.2998450032</v>
-      </c>
       <c r="M2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>759320.2883924362</v>
+        <v>759320.2883924367</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504171</v>
+        <v>11452.26311504116</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>121077.7614108757</v>
+        <v>121077.7614108759</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169917.05013466</v>
+        <v>169917.0501346599</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26436,25 +26436,25 @@
         <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.53656668275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682754</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-467268.3861622897</v>
+        <v>-467443.6124806989</v>
       </c>
       <c r="C6" t="n">
-        <v>117739.3914056988</v>
+        <v>117739.3914056989</v>
       </c>
       <c r="D6" t="n">
-        <v>-38064.41468809597</v>
+        <v>-38064.41468809595</v>
       </c>
       <c r="E6" t="n">
-        <v>-463793.5350327166</v>
+        <v>-463839.4400282826</v>
       </c>
       <c r="F6" t="n">
-        <v>285320.9703393715</v>
+        <v>285286.2324139364</v>
       </c>
       <c r="G6" t="n">
-        <v>296773.2334544131</v>
+        <v>296738.4955289774</v>
       </c>
       <c r="H6" t="n">
-        <v>296773.2334544135</v>
+        <v>296738.4955289775</v>
       </c>
       <c r="I6" t="n">
-        <v>296773.2334544131</v>
+        <v>296738.4955289774</v>
       </c>
       <c r="J6" t="n">
-        <v>120350.0142618202</v>
+        <v>120315.2763363847</v>
       </c>
       <c r="K6" t="n">
-        <v>296773.2334544133</v>
+        <v>296738.4955289774</v>
       </c>
       <c r="L6" t="n">
-        <v>296773.2334544133</v>
+        <v>296738.4955289775</v>
       </c>
       <c r="M6" t="n">
-        <v>175695.4720435374</v>
+        <v>175660.7341181017</v>
       </c>
       <c r="N6" t="n">
-        <v>293696.2160987083</v>
+        <v>293661.4781732728</v>
       </c>
       <c r="O6" t="n">
-        <v>296773.2334544132</v>
+        <v>296738.4955289776</v>
       </c>
       <c r="P6" t="n">
-        <v>296773.2334544132</v>
+        <v>296738.4955289776</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783203</v>
+        <v>764.5649483783208</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>485.8580175714504</v>
+        <v>485.858017571451</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>485.8580175714504</v>
+        <v>485.858017571451</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>485.8580175714504</v>
+        <v>485.858017571451</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>371.0809262297504</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>123.9247083617526</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>81.63652823893045</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.94365979271458</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>76.51544538689484</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.285683525514</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>177.0370314442175</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>145.2368232903846</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>191.9919938965574</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.711682294121</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>225.2705582336033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0792071670522</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35185,10 +35185,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>190.3492888068442</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35264,13 +35264,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>404.5131328921288</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>355.7374950837189</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
